--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV002-001 - Setup Portofolio Investasi - General View Detil Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV002-001 - Setup Portofolio Investasi - General View Detil Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFDBF9-C60D-498E-BEAB-42B5A755AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329C938-5DC0-476E-AFBD-E65AF6830D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DPLKINV002" sheetId="2" r:id="rId1"/>
+    <sheet name="DPLKINV002-001" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -487,7 +487,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
